--- a/uiauto/ExcelForData/UiTestData.xlsx
+++ b/uiauto/ExcelForData/UiTestData.xlsx
@@ -9,14 +9,15 @@
   <sheets>
     <sheet name="Note" sheetId="6" r:id="rId1"/>
     <sheet name="address" sheetId="7" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId3"/>
+    <sheet name="phone" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
   <si>
     <t>contact</t>
   </si>
@@ -42,25 +43,298 @@
     <t>man</t>
   </si>
   <si>
+    <t>1371467277</t>
+  </si>
+  <si>
+    <t>自动化测试楼栋C栋(勿删)</t>
+  </si>
+  <si>
+    <t>111111A</t>
+  </si>
+  <si>
+    <t>大爷男先生</t>
+  </si>
+  <si>
+    <t>大爷女</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>1371467276</t>
+  </si>
+  <si>
+    <t>大爷女女士</t>
+  </si>
+  <si>
+    <t>收货人姓名</t>
+  </si>
+  <si>
+    <t>收货人手机号码</t>
+  </si>
+  <si>
+    <t>期望值</t>
+  </si>
+  <si>
+    <t>大爷134</t>
+  </si>
+  <si>
+    <t>13414672775</t>
+  </si>
+  <si>
+    <t>大爷135</t>
+  </si>
+  <si>
+    <t>13514672775</t>
+  </si>
+  <si>
+    <t>大爷136</t>
+  </si>
+  <si>
+    <t>13614672775</t>
+  </si>
+  <si>
+    <t>大爷137</t>
+  </si>
+  <si>
+    <t>13714672775</t>
+  </si>
+  <si>
+    <t>大爷138</t>
+  </si>
+  <si>
+    <t>13814672775</t>
+  </si>
+  <si>
+    <t>大爷139</t>
+  </si>
+  <si>
+    <t>13914672775</t>
+  </si>
+  <si>
+    <t>大爷150</t>
+  </si>
+  <si>
+    <t>15014672775</t>
+  </si>
+  <si>
+    <t>大爷151</t>
+  </si>
+  <si>
+    <t>15114672775</t>
+  </si>
+  <si>
+    <t>大爷152</t>
+  </si>
+  <si>
+    <t>15214672775</t>
+  </si>
+  <si>
+    <t>大爷157</t>
+  </si>
+  <si>
+    <t>15714672775</t>
+  </si>
+  <si>
+    <t>大爷158</t>
+  </si>
+  <si>
+    <t>15814672775</t>
+  </si>
+  <si>
+    <t>大爷159</t>
+  </si>
+  <si>
+    <t>15914672775</t>
+  </si>
+  <si>
+    <t>大爷182</t>
+  </si>
+  <si>
+    <t>18224672775</t>
+  </si>
+  <si>
+    <t>大爷183</t>
+  </si>
+  <si>
+    <t>18314672775</t>
+  </si>
+  <si>
+    <t>大爷184</t>
+  </si>
+  <si>
+    <t>18414672775</t>
+  </si>
+  <si>
+    <t>大爷187</t>
+  </si>
+  <si>
+    <t>18714672775</t>
+  </si>
+  <si>
+    <t>大爷188</t>
+  </si>
+  <si>
+    <t>18814672775</t>
+  </si>
+  <si>
+    <t>大爷147</t>
+  </si>
+  <si>
+    <t>14714672775</t>
+  </si>
+  <si>
+    <t>大爷178</t>
+  </si>
+  <si>
+    <t>17814672775</t>
+  </si>
+  <si>
+    <t>大爷130</t>
+  </si>
+  <si>
+    <t>13014672775</t>
+  </si>
+  <si>
+    <t>大爷131</t>
+  </si>
+  <si>
+    <t>13114672775</t>
+  </si>
+  <si>
+    <t>大爷132</t>
+  </si>
+  <si>
+    <t>13214672775</t>
+  </si>
+  <si>
+    <t>大爷155</t>
+  </si>
+  <si>
+    <t>15514672775</t>
+  </si>
+  <si>
+    <t>大爷156</t>
+  </si>
+  <si>
+    <t>15614672775</t>
+  </si>
+  <si>
+    <t>大爷185</t>
+  </si>
+  <si>
+    <t>18514672775</t>
+  </si>
+  <si>
+    <t>大爷186</t>
+  </si>
+  <si>
+    <t>18614672775</t>
+  </si>
+  <si>
+    <t>大爷145</t>
+  </si>
+  <si>
+    <t>14514672775</t>
+  </si>
+  <si>
+    <t>大爷175</t>
+  </si>
+  <si>
+    <t>17514672775</t>
+  </si>
+  <si>
+    <t>大爷176</t>
+  </si>
+  <si>
+    <t>17614672775</t>
+  </si>
+  <si>
+    <t>大爷133</t>
+  </si>
+  <si>
+    <t>13314672775</t>
+  </si>
+  <si>
+    <t>大爷153</t>
+  </si>
+  <si>
+    <t>15314672775</t>
+  </si>
+  <si>
+    <t>大爷180</t>
+  </si>
+  <si>
+    <t>18014672775</t>
+  </si>
+  <si>
+    <t>大爷181</t>
+  </si>
+  <si>
+    <t>18114672775</t>
+  </si>
+  <si>
+    <t>大爷189</t>
+  </si>
+  <si>
+    <t>18914672775</t>
+  </si>
+  <si>
+    <t>大爷177</t>
+  </si>
+  <si>
+    <t>17714672775</t>
+  </si>
+  <si>
+    <t>大爷173</t>
+  </si>
+  <si>
+    <t>17314672775</t>
+  </si>
+  <si>
+    <t>大爷170</t>
+  </si>
+  <si>
+    <t>17014672775</t>
+  </si>
+  <si>
+    <t>大爷171</t>
+  </si>
+  <si>
+    <t>17114672775</t>
+  </si>
+  <si>
+    <t>大爷198</t>
+  </si>
+  <si>
+    <t>19814672775</t>
+  </si>
+  <si>
+    <t>大爷199</t>
+  </si>
+  <si>
+    <t>19914672775</t>
+  </si>
+  <si>
+    <t>大爷166</t>
+  </si>
+  <si>
+    <t>16614672775</t>
+  </si>
+  <si>
+    <t>大爷146</t>
+  </si>
+  <si>
+    <t>14614672775</t>
+  </si>
+  <si>
+    <t>大爷148</t>
+  </si>
+  <si>
+    <t>14814672775</t>
+  </si>
+  <si>
     <t>13714672776</t>
-  </si>
-  <si>
-    <t>自动化测试楼栋C栋(勿删)</t>
-  </si>
-  <si>
-    <t>111111A</t>
-  </si>
-  <si>
-    <t>大爷男先生</t>
-  </si>
-  <si>
-    <t>大爷女</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>大爷女女士</t>
   </si>
 </sst>
 </file>
@@ -70,8 +344,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -91,28 +365,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,6 +373,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,6 +401,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -141,9 +448,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,20 +471,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -187,6 +479,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -202,39 +501,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,187 +523,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,39 +720,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,26 +738,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,6 +772,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -548,10 +828,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,137 +840,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,6 +978,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1035,76 +1321,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="12.625" style="1"/>
-    <col min="4" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1166,7 +1386,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -1175,7 +1395,599 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="12.625" style="1"/>
+    <col min="4" max="4" width="24" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
